--- a/docs/v1.0.0/StructureDefinition-VRM-UpdateHeader.xlsx
+++ b/docs/v1.0.0/StructureDefinition-VRM-UpdateHeader.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T12:14:20-05:00</t>
+    <t>2023-12-28T14:18:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
